--- a/Symphony/2021/OCTOBER/All Details/17.10.2021/MC Bank Statement October-2021.xlsx
+++ b/Symphony/2021/OCTOBER/All Details/17.10.2021/MC Bank Statement October-2021.xlsx
@@ -3301,6 +3301,12 @@
     <xf numFmtId="0" fontId="12" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3444,12 +3450,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4117,33 +4117,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="325"/>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
+      <c r="A1" s="327"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="326"/>
-      <c r="B2" s="323" t="s">
+      <c r="A2" s="328"/>
+      <c r="B2" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="323"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
+      <c r="E2" s="325"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="326"/>
-      <c r="B3" s="324" t="s">
+      <c r="A3" s="328"/>
+      <c r="B3" s="326" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="324"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="326"/>
+      <c r="A4" s="328"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -4161,7 +4161,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="326"/>
+      <c r="A5" s="328"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="326"/>
+      <c r="A6" s="328"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -4191,7 +4191,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="326"/>
+      <c r="A7" s="328"/>
       <c r="B7" s="28" t="s">
         <v>70</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="326"/>
+      <c r="A8" s="328"/>
       <c r="B8" s="28" t="s">
         <v>71</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="326"/>
+      <c r="A9" s="328"/>
       <c r="B9" s="28" t="s">
         <v>73</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="326"/>
+      <c r="A10" s="328"/>
       <c r="B10" s="28" t="s">
         <v>74</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="326"/>
+      <c r="A11" s="328"/>
       <c r="B11" s="28" t="s">
         <v>75</v>
       </c>
@@ -4286,7 +4286,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="326"/>
+      <c r="A12" s="328"/>
       <c r="B12" s="28" t="s">
         <v>76</v>
       </c>
@@ -4305,7 +4305,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="326"/>
+      <c r="A13" s="328"/>
       <c r="B13" s="28" t="s">
         <v>77</v>
       </c>
@@ -4324,7 +4324,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="326"/>
+      <c r="A14" s="328"/>
       <c r="B14" s="28" t="s">
         <v>78</v>
       </c>
@@ -4343,7 +4343,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="326"/>
+      <c r="A15" s="328"/>
       <c r="B15" s="28" t="s">
         <v>79</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="326"/>
+      <c r="A16" s="328"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -4375,7 +4375,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="326"/>
+      <c r="A17" s="328"/>
       <c r="B17" s="28"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -4388,7 +4388,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="326"/>
+      <c r="A18" s="328"/>
       <c r="B18" s="28"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -4401,7 +4401,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="326"/>
+      <c r="A19" s="328"/>
       <c r="B19" s="28"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -4414,7 +4414,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="326"/>
+      <c r="A20" s="328"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -4427,7 +4427,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="326"/>
+      <c r="A21" s="328"/>
       <c r="B21" s="28"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4440,7 +4440,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="326"/>
+      <c r="A22" s="328"/>
       <c r="B22" s="28"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -4453,7 +4453,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="326"/>
+      <c r="A23" s="328"/>
       <c r="B23" s="28"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -4466,7 +4466,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="326"/>
+      <c r="A24" s="328"/>
       <c r="B24" s="28"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -4479,7 +4479,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="326"/>
+      <c r="A25" s="328"/>
       <c r="B25" s="28"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4492,7 +4492,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="326"/>
+      <c r="A26" s="328"/>
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -4505,7 +4505,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="326"/>
+      <c r="A27" s="328"/>
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -4518,7 +4518,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="326"/>
+      <c r="A28" s="328"/>
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -4531,7 +4531,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="326"/>
+      <c r="A29" s="328"/>
       <c r="B29" s="28"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -4544,7 +4544,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="326"/>
+      <c r="A30" s="328"/>
       <c r="B30" s="28"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -4557,7 +4557,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="326"/>
+      <c r="A31" s="328"/>
       <c r="B31" s="28"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -4570,7 +4570,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="326"/>
+      <c r="A32" s="328"/>
       <c r="B32" s="28"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -4583,7 +4583,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="326"/>
+      <c r="A33" s="328"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
       <c r="D33" s="30"/>
@@ -4596,7 +4596,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="326"/>
+      <c r="A34" s="328"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4609,7 +4609,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="326"/>
+      <c r="A35" s="328"/>
       <c r="B35" s="28"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4622,7 +4622,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="326"/>
+      <c r="A36" s="328"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4635,7 +4635,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="326"/>
+      <c r="A37" s="328"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4648,7 +4648,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="326"/>
+      <c r="A38" s="328"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4661,7 +4661,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="326"/>
+      <c r="A39" s="328"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4674,7 +4674,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="326"/>
+      <c r="A40" s="328"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -4687,7 +4687,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="326"/>
+      <c r="A41" s="328"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -4700,7 +4700,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="326"/>
+      <c r="A42" s="328"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -4713,7 +4713,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="326"/>
+      <c r="A43" s="328"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -4726,7 +4726,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="326"/>
+      <c r="A44" s="328"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -4739,7 +4739,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="326"/>
+      <c r="A45" s="328"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4752,7 +4752,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="326"/>
+      <c r="A46" s="328"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -4765,7 +4765,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="326"/>
+      <c r="A47" s="328"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4778,7 +4778,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="326"/>
+      <c r="A48" s="328"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -4791,7 +4791,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="326"/>
+      <c r="A49" s="328"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4804,7 +4804,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="326"/>
+      <c r="A50" s="328"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -4817,7 +4817,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="326"/>
+      <c r="A51" s="328"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -4830,7 +4830,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="326"/>
+      <c r="A52" s="328"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -4843,7 +4843,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="326"/>
+      <c r="A53" s="328"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -4856,7 +4856,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="326"/>
+      <c r="A54" s="328"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4869,7 +4869,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="326"/>
+      <c r="A55" s="328"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4881,7 +4881,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="326"/>
+      <c r="A56" s="328"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4893,7 +4893,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="326"/>
+      <c r="A57" s="328"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4905,7 +4905,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="326"/>
+      <c r="A58" s="328"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -4917,7 +4917,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="326"/>
+      <c r="A59" s="328"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -4929,7 +4929,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="326"/>
+      <c r="A60" s="328"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -4941,7 +4941,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="326"/>
+      <c r="A61" s="328"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -4953,7 +4953,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="326"/>
+      <c r="A62" s="328"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -4965,7 +4965,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="326"/>
+      <c r="A63" s="328"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -4977,7 +4977,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="326"/>
+      <c r="A64" s="328"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -4989,7 +4989,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="326"/>
+      <c r="A65" s="328"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -5001,7 +5001,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="326"/>
+      <c r="A66" s="328"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -5013,7 +5013,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="326"/>
+      <c r="A67" s="328"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -5025,7 +5025,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="326"/>
+      <c r="A68" s="328"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -5037,7 +5037,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="326"/>
+      <c r="A69" s="328"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -5049,7 +5049,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="326"/>
+      <c r="A70" s="328"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -5061,7 +5061,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="326"/>
+      <c r="A71" s="328"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -5073,7 +5073,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="326"/>
+      <c r="A72" s="328"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -5085,7 +5085,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="326"/>
+      <c r="A73" s="328"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -5097,7 +5097,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="326"/>
+      <c r="A74" s="328"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -5109,7 +5109,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="326"/>
+      <c r="A75" s="328"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -5121,7 +5121,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="326"/>
+      <c r="A76" s="328"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -5133,7 +5133,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="326"/>
+      <c r="A77" s="328"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -5145,7 +5145,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="326"/>
+      <c r="A78" s="328"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -5157,7 +5157,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="326"/>
+      <c r="A79" s="328"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -5169,7 +5169,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="326"/>
+      <c r="A80" s="328"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -5181,7 +5181,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="326"/>
+      <c r="A81" s="328"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -5193,7 +5193,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="326"/>
+      <c r="A82" s="328"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -5205,7 +5205,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="326"/>
+      <c r="A83" s="328"/>
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
@@ -5244,8 +5244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5262,33 +5262,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="325"/>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
+      <c r="A1" s="327"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="326"/>
-      <c r="B2" s="323" t="s">
+      <c r="A2" s="328"/>
+      <c r="B2" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="323"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
+      <c r="E2" s="325"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="326"/>
-      <c r="B3" s="324" t="s">
+      <c r="A3" s="328"/>
+      <c r="B3" s="326" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="324"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="326"/>
+      <c r="A4" s="328"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -5306,7 +5306,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="326"/>
+      <c r="A5" s="328"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -5324,7 +5324,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="326"/>
+      <c r="A6" s="328"/>
       <c r="B6" s="28"/>
       <c r="C6" s="305"/>
       <c r="D6" s="305"/>
@@ -5336,7 +5336,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="326"/>
+      <c r="A7" s="328"/>
       <c r="B7" s="28" t="s">
         <v>206</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="326"/>
+      <c r="A8" s="328"/>
       <c r="B8" s="28" t="s">
         <v>209</v>
       </c>
@@ -5374,7 +5374,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="326"/>
+      <c r="A9" s="328"/>
       <c r="B9" s="28" t="s">
         <v>212</v>
       </c>
@@ -5393,7 +5393,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="326"/>
+      <c r="A10" s="328"/>
       <c r="B10" s="28" t="s">
         <v>213</v>
       </c>
@@ -5412,7 +5412,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="326"/>
+      <c r="A11" s="328"/>
       <c r="B11" s="28" t="s">
         <v>213</v>
       </c>
@@ -5433,7 +5433,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="326"/>
+      <c r="A12" s="328"/>
       <c r="B12" s="28" t="s">
         <v>216</v>
       </c>
@@ -5452,7 +5452,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="326"/>
+      <c r="A13" s="328"/>
       <c r="B13" s="28" t="s">
         <v>217</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="326"/>
+      <c r="A14" s="328"/>
       <c r="B14" s="28" t="s">
         <v>220</v>
       </c>
@@ -5490,7 +5490,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="326"/>
+      <c r="A15" s="328"/>
       <c r="B15" s="28" t="s">
         <v>222</v>
       </c>
@@ -5509,7 +5509,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="326"/>
+      <c r="A16" s="328"/>
       <c r="B16" s="28" t="s">
         <v>224</v>
       </c>
@@ -5528,7 +5528,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="326"/>
+      <c r="A17" s="328"/>
       <c r="B17" s="28" t="s">
         <v>229</v>
       </c>
@@ -5547,7 +5547,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="326"/>
+      <c r="A18" s="328"/>
       <c r="B18" s="28" t="s">
         <v>232</v>
       </c>
@@ -5566,7 +5566,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="326"/>
+      <c r="A19" s="328"/>
       <c r="B19" s="28" t="s">
         <v>233</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="326"/>
+      <c r="A20" s="328"/>
       <c r="B20" s="28" t="s">
         <v>234</v>
       </c>
@@ -5604,7 +5604,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="326"/>
+      <c r="A21" s="328"/>
       <c r="B21" s="28" t="s">
         <v>238</v>
       </c>
@@ -5623,7 +5623,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="326"/>
+      <c r="A22" s="328"/>
       <c r="B22" s="28"/>
       <c r="C22" s="305"/>
       <c r="D22" s="305"/>
@@ -5636,7 +5636,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="326"/>
+      <c r="A23" s="328"/>
       <c r="B23" s="28"/>
       <c r="C23" s="305"/>
       <c r="D23" s="305"/>
@@ -5649,7 +5649,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="326"/>
+      <c r="A24" s="328"/>
       <c r="B24" s="28"/>
       <c r="C24" s="305"/>
       <c r="D24" s="305"/>
@@ -5662,7 +5662,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="326"/>
+      <c r="A25" s="328"/>
       <c r="B25" s="28"/>
       <c r="C25" s="305"/>
       <c r="D25" s="305"/>
@@ -5675,7 +5675,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="326"/>
+      <c r="A26" s="328"/>
       <c r="B26" s="28"/>
       <c r="C26" s="305"/>
       <c r="D26" s="305"/>
@@ -5688,7 +5688,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="326"/>
+      <c r="A27" s="328"/>
       <c r="B27" s="28"/>
       <c r="C27" s="305"/>
       <c r="D27" s="305"/>
@@ -5701,7 +5701,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="326"/>
+      <c r="A28" s="328"/>
       <c r="B28" s="28"/>
       <c r="C28" s="305"/>
       <c r="D28" s="305"/>
@@ -5714,7 +5714,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="326"/>
+      <c r="A29" s="328"/>
       <c r="B29" s="28"/>
       <c r="C29" s="305"/>
       <c r="D29" s="305"/>
@@ -5727,7 +5727,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="326"/>
+      <c r="A30" s="328"/>
       <c r="B30" s="28"/>
       <c r="C30" s="305"/>
       <c r="D30" s="305"/>
@@ -5740,7 +5740,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="326"/>
+      <c r="A31" s="328"/>
       <c r="B31" s="28"/>
       <c r="C31" s="305"/>
       <c r="D31" s="305"/>
@@ -5753,7 +5753,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="326"/>
+      <c r="A32" s="328"/>
       <c r="B32" s="28"/>
       <c r="C32" s="305"/>
       <c r="D32" s="305"/>
@@ -5766,7 +5766,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="326"/>
+      <c r="A33" s="328"/>
       <c r="B33" s="28"/>
       <c r="C33" s="305"/>
       <c r="D33" s="309"/>
@@ -5779,7 +5779,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="326"/>
+      <c r="A34" s="328"/>
       <c r="B34" s="28"/>
       <c r="C34" s="305"/>
       <c r="D34" s="305"/>
@@ -5792,7 +5792,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="326"/>
+      <c r="A35" s="328"/>
       <c r="B35" s="28"/>
       <c r="C35" s="305"/>
       <c r="D35" s="305"/>
@@ -5805,7 +5805,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="326"/>
+      <c r="A36" s="328"/>
       <c r="B36" s="28"/>
       <c r="C36" s="305"/>
       <c r="D36" s="305"/>
@@ -5818,7 +5818,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="326"/>
+      <c r="A37" s="328"/>
       <c r="B37" s="28"/>
       <c r="C37" s="305"/>
       <c r="D37" s="305"/>
@@ -5831,7 +5831,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="326"/>
+      <c r="A38" s="328"/>
       <c r="B38" s="28"/>
       <c r="C38" s="305"/>
       <c r="D38" s="305"/>
@@ -5844,7 +5844,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="326"/>
+      <c r="A39" s="328"/>
       <c r="B39" s="28"/>
       <c r="C39" s="305"/>
       <c r="D39" s="305"/>
@@ -5857,7 +5857,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="326"/>
+      <c r="A40" s="328"/>
       <c r="B40" s="28"/>
       <c r="C40" s="305"/>
       <c r="D40" s="305"/>
@@ -5870,7 +5870,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="326"/>
+      <c r="A41" s="328"/>
       <c r="B41" s="28"/>
       <c r="C41" s="305"/>
       <c r="D41" s="305"/>
@@ -5883,7 +5883,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="326"/>
+      <c r="A42" s="328"/>
       <c r="B42" s="28"/>
       <c r="C42" s="305"/>
       <c r="D42" s="305"/>
@@ -5896,7 +5896,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="326"/>
+      <c r="A43" s="328"/>
       <c r="B43" s="28"/>
       <c r="C43" s="305"/>
       <c r="D43" s="305"/>
@@ -5909,7 +5909,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="326"/>
+      <c r="A44" s="328"/>
       <c r="B44" s="28"/>
       <c r="C44" s="305"/>
       <c r="D44" s="305"/>
@@ -5922,7 +5922,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="326"/>
+      <c r="A45" s="328"/>
       <c r="B45" s="28"/>
       <c r="C45" s="305"/>
       <c r="D45" s="305"/>
@@ -5935,7 +5935,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="326"/>
+      <c r="A46" s="328"/>
       <c r="B46" s="28"/>
       <c r="C46" s="305"/>
       <c r="D46" s="305"/>
@@ -5948,7 +5948,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="326"/>
+      <c r="A47" s="328"/>
       <c r="B47" s="28"/>
       <c r="C47" s="305"/>
       <c r="D47" s="305"/>
@@ -5961,7 +5961,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="326"/>
+      <c r="A48" s="328"/>
       <c r="B48" s="28"/>
       <c r="C48" s="305"/>
       <c r="D48" s="305"/>
@@ -5974,7 +5974,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="326"/>
+      <c r="A49" s="328"/>
       <c r="B49" s="28"/>
       <c r="C49" s="305"/>
       <c r="D49" s="305"/>
@@ -5987,7 +5987,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="326"/>
+      <c r="A50" s="328"/>
       <c r="B50" s="28"/>
       <c r="C50" s="305"/>
       <c r="D50" s="305"/>
@@ -6000,7 +6000,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="326"/>
+      <c r="A51" s="328"/>
       <c r="B51" s="28"/>
       <c r="C51" s="305"/>
       <c r="D51" s="305"/>
@@ -6013,7 +6013,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="326"/>
+      <c r="A52" s="328"/>
       <c r="B52" s="28"/>
       <c r="C52" s="305"/>
       <c r="D52" s="305"/>
@@ -6026,7 +6026,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="326"/>
+      <c r="A53" s="328"/>
       <c r="B53" s="28"/>
       <c r="C53" s="305"/>
       <c r="D53" s="305"/>
@@ -6039,7 +6039,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="326"/>
+      <c r="A54" s="328"/>
       <c r="B54" s="28"/>
       <c r="C54" s="305"/>
       <c r="D54" s="305"/>
@@ -6052,7 +6052,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="326"/>
+      <c r="A55" s="328"/>
       <c r="B55" s="28"/>
       <c r="C55" s="305"/>
       <c r="D55" s="305"/>
@@ -6064,7 +6064,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="326"/>
+      <c r="A56" s="328"/>
       <c r="B56" s="28"/>
       <c r="C56" s="305"/>
       <c r="D56" s="305"/>
@@ -6076,7 +6076,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="326"/>
+      <c r="A57" s="328"/>
       <c r="B57" s="28"/>
       <c r="C57" s="305"/>
       <c r="D57" s="305"/>
@@ -6088,7 +6088,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="326"/>
+      <c r="A58" s="328"/>
       <c r="B58" s="28"/>
       <c r="C58" s="305"/>
       <c r="D58" s="305"/>
@@ -6100,7 +6100,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="326"/>
+      <c r="A59" s="328"/>
       <c r="B59" s="28"/>
       <c r="C59" s="305"/>
       <c r="D59" s="305"/>
@@ -6112,7 +6112,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="326"/>
+      <c r="A60" s="328"/>
       <c r="B60" s="28"/>
       <c r="C60" s="305"/>
       <c r="D60" s="305"/>
@@ -6124,7 +6124,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="326"/>
+      <c r="A61" s="328"/>
       <c r="B61" s="28"/>
       <c r="C61" s="305"/>
       <c r="D61" s="305"/>
@@ -6136,7 +6136,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="326"/>
+      <c r="A62" s="328"/>
       <c r="B62" s="28"/>
       <c r="C62" s="305"/>
       <c r="D62" s="305"/>
@@ -6148,7 +6148,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="326"/>
+      <c r="A63" s="328"/>
       <c r="B63" s="28"/>
       <c r="C63" s="305"/>
       <c r="D63" s="305"/>
@@ -6160,7 +6160,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="326"/>
+      <c r="A64" s="328"/>
       <c r="B64" s="28"/>
       <c r="C64" s="305"/>
       <c r="D64" s="305"/>
@@ -6172,7 +6172,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="326"/>
+      <c r="A65" s="328"/>
       <c r="B65" s="28"/>
       <c r="C65" s="305"/>
       <c r="D65" s="305"/>
@@ -6184,7 +6184,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="326"/>
+      <c r="A66" s="328"/>
       <c r="B66" s="28"/>
       <c r="C66" s="305"/>
       <c r="D66" s="305"/>
@@ -6196,7 +6196,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="326"/>
+      <c r="A67" s="328"/>
       <c r="B67" s="28"/>
       <c r="C67" s="305"/>
       <c r="D67" s="305"/>
@@ -6208,7 +6208,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="326"/>
+      <c r="A68" s="328"/>
       <c r="B68" s="28"/>
       <c r="C68" s="305"/>
       <c r="D68" s="305"/>
@@ -6220,7 +6220,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="326"/>
+      <c r="A69" s="328"/>
       <c r="B69" s="28"/>
       <c r="C69" s="305"/>
       <c r="D69" s="305"/>
@@ -6232,7 +6232,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="326"/>
+      <c r="A70" s="328"/>
       <c r="B70" s="28"/>
       <c r="C70" s="305"/>
       <c r="D70" s="305"/>
@@ -6244,7 +6244,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="326"/>
+      <c r="A71" s="328"/>
       <c r="B71" s="28"/>
       <c r="C71" s="305"/>
       <c r="D71" s="305"/>
@@ -6256,7 +6256,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="326"/>
+      <c r="A72" s="328"/>
       <c r="B72" s="28"/>
       <c r="C72" s="305"/>
       <c r="D72" s="305"/>
@@ -6268,7 +6268,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="326"/>
+      <c r="A73" s="328"/>
       <c r="B73" s="28"/>
       <c r="C73" s="305"/>
       <c r="D73" s="305"/>
@@ -6280,7 +6280,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="326"/>
+      <c r="A74" s="328"/>
       <c r="B74" s="28"/>
       <c r="C74" s="305"/>
       <c r="D74" s="305"/>
@@ -6292,7 +6292,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="326"/>
+      <c r="A75" s="328"/>
       <c r="B75" s="28"/>
       <c r="C75" s="305"/>
       <c r="D75" s="305"/>
@@ -6304,7 +6304,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="326"/>
+      <c r="A76" s="328"/>
       <c r="B76" s="28"/>
       <c r="C76" s="305"/>
       <c r="D76" s="305"/>
@@ -6316,7 +6316,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="326"/>
+      <c r="A77" s="328"/>
       <c r="B77" s="28"/>
       <c r="C77" s="305"/>
       <c r="D77" s="305"/>
@@ -6328,7 +6328,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="326"/>
+      <c r="A78" s="328"/>
       <c r="B78" s="28"/>
       <c r="C78" s="305"/>
       <c r="D78" s="305"/>
@@ -6340,7 +6340,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="326"/>
+      <c r="A79" s="328"/>
       <c r="B79" s="28"/>
       <c r="C79" s="305"/>
       <c r="D79" s="305"/>
@@ -6352,7 +6352,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="326"/>
+      <c r="A80" s="328"/>
       <c r="B80" s="28"/>
       <c r="C80" s="305"/>
       <c r="D80" s="305"/>
@@ -6364,7 +6364,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="326"/>
+      <c r="A81" s="328"/>
       <c r="B81" s="28"/>
       <c r="C81" s="305"/>
       <c r="D81" s="305"/>
@@ -6376,7 +6376,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="326"/>
+      <c r="A82" s="328"/>
       <c r="B82" s="28"/>
       <c r="C82" s="305"/>
       <c r="D82" s="305"/>
@@ -6388,7 +6388,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="326"/>
+      <c r="A83" s="328"/>
       <c r="B83" s="33"/>
       <c r="C83" s="307">
         <f>SUM(C5:C72)</f>
@@ -6440,67 +6440,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
-      <c r="N1" s="331"/>
-      <c r="O1" s="331"/>
-      <c r="P1" s="331"/>
-      <c r="Q1" s="331"/>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
+      <c r="M1" s="333"/>
+      <c r="N1" s="333"/>
+      <c r="O1" s="333"/>
+      <c r="P1" s="333"/>
+      <c r="Q1" s="333"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="18">
-      <c r="A2" s="332" t="s">
+      <c r="A2" s="334" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="332"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
-      <c r="E2" s="332"/>
-      <c r="F2" s="332"/>
-      <c r="G2" s="332"/>
-      <c r="H2" s="332"/>
-      <c r="I2" s="332"/>
-      <c r="J2" s="332"/>
-      <c r="K2" s="332"/>
-      <c r="L2" s="332"/>
-      <c r="M2" s="332"/>
-      <c r="N2" s="332"/>
-      <c r="O2" s="332"/>
-      <c r="P2" s="332"/>
-      <c r="Q2" s="332"/>
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
     </row>
     <row r="3" spans="1:24" s="82" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="333" t="s">
+      <c r="A3" s="335" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="335"/>
+      <c r="B3" s="336"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="337"/>
       <c r="S3" s="65"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6509,52 +6509,52 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="83" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="338" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="338" t="s">
+      <c r="B4" s="340" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="327" t="s">
+      <c r="C4" s="329" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="327" t="s">
+      <c r="D4" s="329" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="327" t="s">
+      <c r="E4" s="329" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="327" t="s">
+      <c r="F4" s="329" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="327" t="s">
+      <c r="G4" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="327" t="s">
+      <c r="H4" s="329" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="327" t="s">
+      <c r="I4" s="329" t="s">
         <v>172</v>
       </c>
-      <c r="J4" s="327" t="s">
+      <c r="J4" s="329" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="327" t="s">
+      <c r="K4" s="329" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="327" t="s">
+      <c r="L4" s="329" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="327" t="s">
+      <c r="M4" s="329" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="327" t="s">
+      <c r="N4" s="329" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="329" t="s">
+      <c r="O4" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="340" t="s">
+      <c r="P4" s="342" t="s">
         <v>82</v>
       </c>
       <c r="Q4" s="145" t="s">
@@ -6567,22 +6567,22 @@
       <c r="W4" s="85"/>
     </row>
     <row r="5" spans="1:24" s="83" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="337"/>
-      <c r="B5" s="339"/>
-      <c r="C5" s="328"/>
-      <c r="D5" s="328"/>
-      <c r="E5" s="328"/>
-      <c r="F5" s="328"/>
-      <c r="G5" s="328"/>
-      <c r="H5" s="328"/>
-      <c r="I5" s="328"/>
-      <c r="J5" s="328"/>
-      <c r="K5" s="328"/>
-      <c r="L5" s="328"/>
-      <c r="M5" s="328"/>
-      <c r="N5" s="328"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="341"/>
+      <c r="A5" s="339"/>
+      <c r="B5" s="341"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="330"/>
+      <c r="L5" s="330"/>
+      <c r="M5" s="330"/>
+      <c r="N5" s="330"/>
+      <c r="O5" s="332"/>
+      <c r="P5" s="343"/>
       <c r="Q5" s="146" t="s">
         <v>56</v>
       </c>
@@ -9696,8 +9696,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
@@ -9715,6 +9713,8 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9756,14 +9756,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="348" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="348"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="350"/>
       <c r="G1" s="76"/>
       <c r="H1" s="76"/>
       <c r="I1" s="162"/>
@@ -9857,14 +9857,14 @@
       <c r="CS1" s="157"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="349" t="s">
+      <c r="A2" s="351" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="350"/>
-      <c r="C2" s="350"/>
-      <c r="D2" s="350"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="351"/>
+      <c r="B2" s="352"/>
+      <c r="C2" s="352"/>
+      <c r="D2" s="352"/>
+      <c r="E2" s="352"/>
+      <c r="F2" s="353"/>
       <c r="G2" s="76"/>
       <c r="H2" s="76"/>
       <c r="I2" s="162"/>
@@ -9958,14 +9958,14 @@
       <c r="CS2" s="157"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="352" t="s">
+      <c r="A3" s="354" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="353"/>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
-      <c r="F3" s="354"/>
+      <c r="B3" s="355"/>
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="356"/>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
       <c r="I3" s="162"/>
@@ -13384,12 +13384,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="152"/>
-      <c r="B35" s="344" t="s">
+      <c r="B35" s="346" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="344"/>
-      <c r="D35" s="344"/>
-      <c r="E35" s="344"/>
+      <c r="C35" s="346"/>
+      <c r="D35" s="346"/>
+      <c r="E35" s="346"/>
       <c r="F35" s="153"/>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -13708,7 +13708,7 @@
       <c r="A38" s="206" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="371" t="s">
+      <c r="B38" s="323" t="s">
         <v>240</v>
       </c>
       <c r="C38" s="134" t="s">
@@ -14268,10 +14268,10 @@
         <v>229</v>
       </c>
       <c r="F43" s="153"/>
-      <c r="G43" s="345"/>
-      <c r="H43" s="345"/>
-      <c r="I43" s="345"/>
-      <c r="J43" s="345"/>
+      <c r="G43" s="347"/>
+      <c r="H43" s="347"/>
+      <c r="I43" s="347"/>
+      <c r="J43" s="347"/>
       <c r="K43" s="76"/>
       <c r="L43" s="162"/>
       <c r="M43" s="76"/>
@@ -22821,11 +22821,11 @@
       <c r="CS118" s="157"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="342" t="s">
+      <c r="A119" s="344" t="s">
         <v>42</v>
       </c>
-      <c r="B119" s="343"/>
-      <c r="C119" s="355"/>
+      <c r="B119" s="345"/>
+      <c r="C119" s="357"/>
       <c r="D119" s="237">
         <f>SUM(D37:D118)</f>
         <v>2050244</v>
@@ -23028,11 +23028,11 @@
       <c r="CS120" s="157"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="342" t="s">
+      <c r="A121" s="344" t="s">
         <v>43</v>
       </c>
-      <c r="B121" s="343"/>
-      <c r="C121" s="343"/>
+      <c r="B121" s="345"/>
+      <c r="C121" s="345"/>
       <c r="D121" s="237">
         <f>D119+M121</f>
         <v>2050244</v>
@@ -34268,7 +34268,7 @@
   <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34287,35 +34287,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="356" t="s">
+      <c r="A1" s="358" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="358"/>
+      <c r="B1" s="359"/>
+      <c r="C1" s="359"/>
+      <c r="D1" s="359"/>
+      <c r="E1" s="360"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="365" t="s">
+      <c r="A2" s="367" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="366"/>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="367"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="368"/>
+      <c r="E2" s="369"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="359" t="s">
+      <c r="A3" s="361" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="360"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="360"/>
-      <c r="E3" s="361"/>
+      <c r="B3" s="362"/>
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="363"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -34342,13 +34342,13 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="26.25" customHeight="1">
-      <c r="A4" s="368" t="s">
+      <c r="A4" s="370" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="369"/>
-      <c r="C4" s="369"/>
-      <c r="D4" s="369"/>
-      <c r="E4" s="370"/>
+      <c r="B4" s="371"/>
+      <c r="C4" s="371"/>
+      <c r="D4" s="371"/>
+      <c r="E4" s="372"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11"/>
       <c r="H4" s="8"/>
@@ -34375,13 +34375,13 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" ht="24" thickBot="1">
-      <c r="A5" s="368" t="s">
+      <c r="A5" s="370" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="369"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="370"/>
+      <c r="B5" s="371"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="372"/>
       <c r="F5" s="5"/>
       <c r="G5" s="54"/>
       <c r="H5" s="6"/>
@@ -34426,7 +34426,7 @@
         <v>188</v>
       </c>
       <c r="H6" s="273" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -34533,7 +34533,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="265"/>
       <c r="H9" s="320">
-        <v>316775</v>
+        <v>157700</v>
       </c>
       <c r="I9" s="42" t="s">
         <v>236</v>
@@ -34615,7 +34615,7 @@
       <c r="G11" s="266"/>
       <c r="H11" s="321">
         <f>H10+H9</f>
-        <v>515929</v>
+        <v>356854</v>
       </c>
       <c r="I11" s="322"/>
       <c r="J11" s="8"/>
@@ -34865,13 +34865,13 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="1:29" ht="22.5">
-      <c r="A18" s="362" t="s">
+      <c r="A18" s="364" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="363"/>
-      <c r="C18" s="363"/>
-      <c r="D18" s="363"/>
-      <c r="E18" s="364"/>
+      <c r="B18" s="365"/>
+      <c r="C18" s="365"/>
+      <c r="D18" s="365"/>
+      <c r="E18" s="366"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="17"/>
@@ -35129,7 +35129,7 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="1:29" ht="21.75">
-      <c r="A25" s="372" t="s">
+      <c r="A25" s="324" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="302">
